--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Hhip.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1648133333333333</v>
+        <v>0.046397</v>
       </c>
       <c r="N2">
-        <v>0.49444</v>
+        <v>0.139191</v>
       </c>
       <c r="O2">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="P2">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="Q2">
-        <v>0.01121005355555556</v>
+        <v>0.003155769283333333</v>
       </c>
       <c r="R2">
-        <v>0.100890482</v>
+        <v>0.02840192355</v>
       </c>
       <c r="S2">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
       <c r="T2">
-        <v>0.07417711173133736</v>
+        <v>0.01970724914037141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.660768</v>
       </c>
       <c r="O3">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="P3">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="Q3">
         <v>0.1056699678222222</v>
@@ -632,10 +632,10 @@
         <v>0.9510297104000001</v>
       </c>
       <c r="S3">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
       <c r="T3">
-        <v>0.6992199431474835</v>
+        <v>0.6598912010221247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5034866666666667</v>
+        <v>0.754325</v>
       </c>
       <c r="N4">
-        <v>1.51046</v>
+        <v>2.262975</v>
       </c>
       <c r="O4">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="P4">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="Q4">
-        <v>0.03424548477777779</v>
+        <v>0.05130667208333334</v>
       </c>
       <c r="R4">
-        <v>0.308209363</v>
+        <v>0.46176004875</v>
       </c>
       <c r="S4">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
       <c r="T4">
-        <v>0.2266029451211792</v>
+        <v>0.3204015498375038</v>
       </c>
     </row>
   </sheetData>
